--- a/网易邮箱.xlsx
+++ b/网易邮箱.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7EBF1E8B-E909-4D86-9EC6-DBF71B05DE5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BD1E6A92-39F9-4168-BC1F-1ED898D7B7ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,57 +113,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l:0</t>
+  </si>
+  <si>
+    <t>pd:"mail163"</t>
+  </si>
+  <si>
+    <t>pkid:"CvViHzl"</t>
+  </si>
+  <si>
+    <t>pw:"Ca46ibtOTeu1JVhdTp0eH0jUipu9nnEOxR9djgvnQpGXa5MdURUk6RzdGlM3K1EQC/Mh5TH+Zshyt8MXF9MSpVMIBltimhhn7BsNZp7QerFWDl2ojUcK7JGGng0fBni27DS5+8qmjYUW2nW2233Om8Unvp75nmHE1MdaX2VH0Ak="</t>
+  </si>
+  <si>
+    <t>pwdKeyUp:1</t>
+  </si>
+  <si>
+    <t>t:1524475982331</t>
+  </si>
+  <si>
+    <t>tk:"3b8ffcf392e0ff4c4c8d818dbffee674"</t>
+  </si>
+  <si>
+    <t>topURL:"https://mail.163.com/"</t>
+  </si>
+  <si>
+    <t>un:"983821194@163.com"</t>
+  </si>
+  <si>
+    <t>domains:"163.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dl.reg.163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://dl.reg.163.com/l</t>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l:0</t>
-  </si>
-  <si>
-    <t>pd:"mail163"</t>
-  </si>
-  <si>
-    <t>pkid:"CvViHzl"</t>
-  </si>
-  <si>
-    <t>pw:"Ca46ibtOTeu1JVhdTp0eH0jUipu9nnEOxR9djgvnQpGXa5MdURUk6RzdGlM3K1EQC/Mh5TH+Zshyt8MXF9MSpVMIBltimhhn7BsNZp7QerFWDl2ojUcK7JGGng0fBni27DS5+8qmjYUW2nW2233Om8Unvp75nmHE1MdaX2VH0Ak="</t>
-  </si>
-  <si>
-    <t>pwdKeyUp:1</t>
-  </si>
-  <si>
-    <t>t:1524475982331</t>
-  </si>
-  <si>
-    <t>tk:"3b8ffcf392e0ff4c4c8d818dbffee674"</t>
-  </si>
-  <si>
-    <t>topURL:"https://mail.163.com/"</t>
-  </si>
-  <si>
-    <t>un:"983821194@163.com"</t>
-  </si>
-  <si>
-    <t>domains:"163.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://dl.reg.163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,12 +504,12 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
     <col min="3" max="3" width="46.77734375" customWidth="1"/>
     <col min="4" max="5" width="18.5546875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
@@ -528,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -551,7 +553,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -594,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -649,20 +651,20 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" t="s">
-        <v>42</v>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -670,60 +672,62 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2E96E3A7-6310-4F85-B2AC-3677D3074B31}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{4026B558-60F1-492E-A817-035C28E310C5}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{054E30E9-7DC6-4709-A922-C4C3012B866F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>